--- a/Официальные группы/Zajava_generator/Data/Группы ЛЭМБ 2020 2021.xlsx
+++ b/Официальные группы/Zajava_generator/Data/Группы ЛЭМБ 2020 2021.xlsx
@@ -20,14 +20,14 @@
     <sheet name="Нруппы с выездами" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">all!$A$1:$S$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">all!$A$1:$S$138</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4875" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4976" uniqueCount="829">
   <si>
     <t>дата экспорта</t>
   </si>
@@ -2364,6 +2364,15 @@
   </si>
   <si>
     <t>Селезнева</t>
+  </si>
+  <si>
+    <t>Истомин</t>
+  </si>
+  <si>
+    <t>Матвеева</t>
+  </si>
+  <si>
+    <t>Кузнецов</t>
   </si>
   <si>
     <t>Санкт-Петербург</t>
@@ -2512,12 +2521,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="dd\.mm\.yyyy\ h:mm"/>
+    <numFmt numFmtId="178" formatCode="dd\.mm\.yyyy\ h:mm"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2548,22 +2557,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2571,6 +2578,46 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2585,8 +2632,39 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2599,45 +2677,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -2645,41 +2684,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2691,13 +2700,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2709,61 +2742,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2781,13 +2778,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2799,13 +2790,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2817,25 +2826,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2847,31 +2856,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2882,6 +2891,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2900,22 +2929,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2935,35 +2959,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2982,156 +2982,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -3140,17 +3149,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3169,9 +3178,9 @@
     <cellStyle name="Итого" xfId="11" builtinId="25"/>
     <cellStyle name="Вывод" xfId="12" builtinId="21"/>
     <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
-    <cellStyle name="Примечание" xfId="14" builtinId="10"/>
-    <cellStyle name="40% — Акцент4" xfId="15" builtinId="43"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="16" builtinId="9"/>
+    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
     <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
     <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
     <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
@@ -4760,7 +4769,7 @@
   <dimension ref="A1:AR21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD21"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -4988,13 +4997,13 @@
         <v>684</v>
       </c>
       <c r="AI2" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="AJ2" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="AK2" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="AM2" t="s">
         <v>56</v>
@@ -5107,13 +5116,13 @@
         <v>690</v>
       </c>
       <c r="AI3" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="AJ3" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="AK3" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="AM3" t="s">
         <v>56</v>
@@ -5226,7 +5235,7 @@
         <v>694</v>
       </c>
       <c r="AI4" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="AK4" t="s">
         <v>56</v>
@@ -5339,13 +5348,13 @@
         <v>701</v>
       </c>
       <c r="AI5" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="AJ5" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="AK5" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="AM5" t="s">
         <v>56</v>
@@ -5458,7 +5467,7 @@
         <v>705</v>
       </c>
       <c r="AI6" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="AK6" t="s">
         <v>56</v>
@@ -5684,13 +5693,13 @@
         <v>713</v>
       </c>
       <c r="AI8" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="AJ8" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="AK8" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="AM8" t="s">
         <v>56</v>
@@ -5806,22 +5815,22 @@
         <v>197372</v>
       </c>
       <c r="AJ9" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="AK9" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="AL9" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="AM9" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="AN9" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="AO9" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="AQ9" t="s">
         <v>56</v>
@@ -5937,16 +5946,16 @@
         <v>192289</v>
       </c>
       <c r="AJ10" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="AK10" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="AL10" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="AM10" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="AO10" t="s">
         <v>56</v>
@@ -6059,7 +6068,7 @@
         <v>728</v>
       </c>
       <c r="AI11" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="AK11" t="s">
         <v>56</v>
@@ -6172,16 +6181,16 @@
         <v>79052274602</v>
       </c>
       <c r="AI12" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="AJ12" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="AK12" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="AL12" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="AN12" t="s">
         <v>56</v>
@@ -6294,19 +6303,19 @@
         <v>741</v>
       </c>
       <c r="AI13" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="AJ13" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="AK13" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="AL13" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="AM13" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="AO13" t="s">
         <v>56</v>
@@ -6419,10 +6428,10 @@
         <v>748</v>
       </c>
       <c r="AI14" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="AJ14" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="AL14" t="s">
         <v>56</v>
@@ -6535,7 +6544,7 @@
         <v>79819848862</v>
       </c>
       <c r="AI15" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="AK15" t="s">
         <v>56</v>
@@ -6651,7 +6660,7 @@
         <v>659</v>
       </c>
       <c r="AJ16" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="AL16" t="s">
         <v>56</v>
@@ -6764,7 +6773,7 @@
         <v>42</v>
       </c>
       <c r="AI17" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="AK17" t="s">
         <v>56</v>
@@ -6877,7 +6886,7 @@
         <v>42</v>
       </c>
       <c r="AI18" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="AK18" t="s">
         <v>56</v>
@@ -6990,7 +6999,7 @@
         <v>42</v>
       </c>
       <c r="AI19" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="AK19" t="s">
         <v>56</v>
@@ -7103,7 +7112,7 @@
         <v>42</v>
       </c>
       <c r="AI20" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="AK20" t="s">
         <v>56</v>
@@ -7216,7 +7225,7 @@
         <v>42</v>
       </c>
       <c r="AI21" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="AK21" t="s">
         <v>56</v>
@@ -7255,7 +7264,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -7278,7 +7287,7 @@
         <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C2" t="s">
         <v>681</v>
@@ -7301,7 +7310,7 @@
         <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C3" t="s">
         <v>687</v>
@@ -7324,7 +7333,7 @@
         <v>145</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C4" t="s">
         <v>692</v>
@@ -7347,7 +7356,7 @@
         <v>145</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C5" t="s">
         <v>696</v>
@@ -7370,7 +7379,7 @@
         <v>145</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C6" t="s">
         <v>703</v>
@@ -7393,7 +7402,7 @@
         <v>145</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C7" t="s">
         <v>464</v>
@@ -7416,7 +7425,7 @@
         <v>145</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C8" t="s">
         <v>710</v>
@@ -7439,7 +7448,7 @@
         <v>145</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C9" t="s">
         <v>716</v>
@@ -7462,7 +7471,7 @@
         <v>145</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C10" t="s">
         <v>721</v>
@@ -7485,7 +7494,7 @@
         <v>145</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C11" t="s">
         <v>725</v>
@@ -7508,7 +7517,7 @@
         <v>145</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C12" t="s">
         <v>464</v>
@@ -7531,7 +7540,7 @@
         <v>145</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C13" t="s">
         <v>738</v>
@@ -7554,7 +7563,7 @@
         <v>145</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C14" t="s">
         <v>743</v>
@@ -7577,7 +7586,7 @@
         <v>145</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C15" t="s">
         <v>750</v>
@@ -7600,7 +7609,7 @@
         <v>145</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C16" t="s">
         <v>755</v>
@@ -7623,7 +7632,7 @@
         <v>145</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C17" t="s">
         <v>763</v>
@@ -7646,7 +7655,7 @@
         <v>145</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C18" t="s">
         <v>766</v>
@@ -7669,7 +7678,7 @@
         <v>145</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C19" t="s">
         <v>769</v>
@@ -7692,7 +7701,7 @@
         <v>145</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C20" t="s">
         <v>775</v>
@@ -7715,7 +7724,7 @@
         <v>145</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C21" t="s">
         <v>778</v>
@@ -7738,7 +7747,7 @@
         <v>141</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>453</v>
@@ -7761,7 +7770,7 @@
         <v>141</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>464</v>
@@ -7784,7 +7793,7 @@
         <v>141</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>471</v>
@@ -7807,7 +7816,7 @@
         <v>141</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>477</v>
@@ -7830,7 +7839,7 @@
         <v>141</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>486</v>
@@ -7853,7 +7862,7 @@
         <v>141</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>486</v>
@@ -7876,7 +7885,7 @@
         <v>141</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>433</v>
@@ -7899,7 +7908,7 @@
         <v>141</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>499</v>
@@ -7922,7 +7931,7 @@
         <v>141</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>506</v>
@@ -7945,7 +7954,7 @@
         <v>141</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>513</v>
@@ -7968,7 +7977,7 @@
         <v>141</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>522</v>
@@ -7991,7 +8000,7 @@
         <v>141</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>530</v>
@@ -8014,7 +8023,7 @@
         <v>141</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>537</v>
@@ -8037,7 +8046,7 @@
         <v>141</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>544</v>
@@ -8060,7 +8069,7 @@
         <v>141</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>550</v>
@@ -8083,7 +8092,7 @@
         <v>147</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>373</v>
@@ -8106,7 +8115,7 @@
         <v>147</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>378</v>
@@ -8129,7 +8138,7 @@
         <v>147</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>386</v>
@@ -8152,7 +8161,7 @@
         <v>147</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>391</v>
@@ -8175,7 +8184,7 @@
         <v>147</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>395</v>
@@ -8198,7 +8207,7 @@
         <v>147</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>400</v>
@@ -8221,7 +8230,7 @@
         <v>147</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>403</v>
@@ -8244,7 +8253,7 @@
         <v>147</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>409</v>
@@ -8267,7 +8276,7 @@
         <v>147</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>415</v>
@@ -8290,7 +8299,7 @@
         <v>147</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>422</v>
@@ -8313,7 +8322,7 @@
         <v>147</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>427</v>
@@ -8336,7 +8345,7 @@
         <v>147</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>431</v>
@@ -8359,7 +8368,7 @@
         <v>147</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>436</v>
@@ -8382,7 +8391,7 @@
         <v>147</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>443</v>
@@ -8405,7 +8414,7 @@
         <v>147</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>447</v>
@@ -8428,7 +8437,7 @@
         <v>312</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>556</v>
@@ -8451,7 +8460,7 @@
         <v>312</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>561</v>
@@ -8474,7 +8483,7 @@
         <v>312</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>564</v>
@@ -8497,7 +8506,7 @@
         <v>312</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>570</v>
@@ -8520,7 +8529,7 @@
         <v>312</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>574</v>
@@ -8543,7 +8552,7 @@
         <v>312</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>577</v>
@@ -8566,7 +8575,7 @@
         <v>312</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>583</v>
@@ -8589,7 +8598,7 @@
         <v>312</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>588</v>
@@ -8612,7 +8621,7 @@
         <v>312</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>592</v>
@@ -8635,7 +8644,7 @@
         <v>312</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>597</v>
@@ -8658,7 +8667,7 @@
         <v>310</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>129</v>
@@ -8681,7 +8690,7 @@
         <v>310</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>138</v>
@@ -8704,7 +8713,7 @@
         <v>310</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>146</v>
@@ -8727,7 +8736,7 @@
         <v>310</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>153</v>
@@ -8750,7 +8759,7 @@
         <v>310</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>161</v>
@@ -8773,7 +8782,7 @@
         <v>310</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>166</v>
@@ -8796,7 +8805,7 @@
         <v>310</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>173</v>
@@ -8819,7 +8828,7 @@
         <v>310</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>180</v>
@@ -8842,7 +8851,7 @@
         <v>310</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>186</v>
@@ -8865,7 +8874,7 @@
         <v>310</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>194</v>
@@ -8888,7 +8897,7 @@
         <v>404</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>39</v>
@@ -8911,7 +8920,7 @@
         <v>404</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>59</v>
@@ -8934,7 +8943,7 @@
         <v>404</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>69</v>
@@ -8957,7 +8966,7 @@
         <v>404</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>79</v>
@@ -8980,7 +8989,7 @@
         <v>404</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>87</v>
@@ -9003,7 +9012,7 @@
         <v>404</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>95</v>
@@ -9026,7 +9035,7 @@
         <v>404</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>100</v>
@@ -9049,7 +9058,7 @@
         <v>404</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>109</v>
@@ -9072,7 +9081,7 @@
         <v>404</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>115</v>
@@ -9095,7 +9104,7 @@
         <v>404</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>124</v>
@@ -20037,17 +20046,24 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S128"/>
+  <dimension ref="A1:V138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="12.8888888888889"/>
     <col min="12" max="12" width="10.8888888888889"/>
+    <col min="16" max="16" width="16.5555555555556"/>
+    <col min="18" max="18" width="10.8888888888889"/>
     <col min="19" max="19" width="15.4444444444444" customWidth="1"/>
+    <col min="22" max="22" width="16.5555555555556"/>
+    <col min="26" max="26" width="12.8888888888889"/>
+    <col min="28" max="28" width="10.8888888888889"/>
+    <col min="32" max="32" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -23545,7 +23561,7 @@
         <v>394</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>395</v>
+        <v>779</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>181</v>
@@ -23663,7 +23679,7 @@
         <v>402</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>404</v>
@@ -23781,7 +23797,7 @@
         <v>414</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>415</v>
+        <v>780</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>229</v>
@@ -23958,7 +23974,7 @@
         <v>430</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>431</v>
+        <v>781</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>432</v>
@@ -27602,8 +27618,628 @@
         <v>42</v>
       </c>
     </row>
+    <row r="129" s="1" customFormat="1" spans="1:22">
+      <c r="A129" s="6">
+        <v>44151.387962963</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1</v>
+      </c>
+      <c r="C129" s="1">
+        <v>404</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H129" s="1">
+        <v>239</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J129" s="1">
+        <v>9650124767</v>
+      </c>
+      <c r="K129" s="1">
+        <v>4</v>
+      </c>
+      <c r="L129" s="3">
+        <v>37703</v>
+      </c>
+      <c r="M129" s="1">
+        <v>11</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P129" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q129" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R129" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S129" s="1">
+        <v>9818409012</v>
+      </c>
+      <c r="T129" s="1"/>
+      <c r="U129" s="1"/>
+      <c r="V129" s="3"/>
+    </row>
+    <row r="130" s="1" customFormat="1" spans="1:22">
+      <c r="A130" s="6">
+        <v>44151.387962963</v>
+      </c>
+      <c r="B130" s="1">
+        <v>2</v>
+      </c>
+      <c r="C130" s="1">
+        <v>404</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H130" s="1">
+        <v>610</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J130" s="1">
+        <v>9312443359</v>
+      </c>
+      <c r="K130" s="1">
+        <v>4</v>
+      </c>
+      <c r="L130" s="3">
+        <v>38174</v>
+      </c>
+      <c r="M130" s="1">
+        <v>10</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O130" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P130" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q130" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R130" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S130" s="1">
+        <v>9213379090</v>
+      </c>
+      <c r="T130" s="1"/>
+      <c r="U130" s="1"/>
+      <c r="V130" s="3"/>
+    </row>
+    <row r="131" s="1" customFormat="1" spans="1:22">
+      <c r="A131" s="6">
+        <v>44151.387962963</v>
+      </c>
+      <c r="B131" s="1">
+        <v>3</v>
+      </c>
+      <c r="C131" s="1">
+        <v>404</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H131" s="1">
+        <v>65</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J131" s="1">
+        <v>89811046320</v>
+      </c>
+      <c r="K131" s="1">
+        <v>3</v>
+      </c>
+      <c r="L131" s="3">
+        <v>37554</v>
+      </c>
+      <c r="M131" s="1">
+        <v>9</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P131" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q131" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R131" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S131" s="1">
+        <v>89117027193</v>
+      </c>
+      <c r="T131" s="1"/>
+      <c r="U131" s="1"/>
+      <c r="V131" s="3"/>
+    </row>
+    <row r="132" s="1" customFormat="1" spans="1:22">
+      <c r="A132" s="6">
+        <v>44151.387962963</v>
+      </c>
+      <c r="B132" s="1">
+        <v>4</v>
+      </c>
+      <c r="C132" s="1">
+        <v>404</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H132" s="1">
+        <v>533</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J132" s="1">
+        <v>9118984726</v>
+      </c>
+      <c r="K132" s="1">
+        <v>2</v>
+      </c>
+      <c r="L132" s="3">
+        <v>39080</v>
+      </c>
+      <c r="M132" s="1">
+        <v>7</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P132" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q132" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S132" s="1">
+        <v>9213909692</v>
+      </c>
+      <c r="T132" s="1"/>
+      <c r="U132" s="1"/>
+      <c r="V132" s="3"/>
+    </row>
+    <row r="133" s="1" customFormat="1" spans="1:22">
+      <c r="A133" s="6">
+        <v>44151.387962963</v>
+      </c>
+      <c r="B133" s="1">
+        <v>5</v>
+      </c>
+      <c r="C133" s="1">
+        <v>404</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H133" s="1">
+        <v>343</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J133" s="1">
+        <v>89214460212</v>
+      </c>
+      <c r="K133" s="1">
+        <v>1</v>
+      </c>
+      <c r="L133" s="3">
+        <v>38321</v>
+      </c>
+      <c r="M133" s="1">
+        <v>9</v>
+      </c>
+      <c r="N133" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P133" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q133" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R133" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S133" s="1">
+        <v>89213166451</v>
+      </c>
+      <c r="T133" s="1"/>
+      <c r="U133" s="1"/>
+      <c r="V133" s="3"/>
+    </row>
+    <row r="134" s="1" customFormat="1" spans="1:22">
+      <c r="A134" s="6">
+        <v>44151.387962963</v>
+      </c>
+      <c r="B134" s="1">
+        <v>6</v>
+      </c>
+      <c r="C134" s="1">
+        <v>404</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H134" s="1">
+        <v>222</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K134" s="1">
+        <v>2</v>
+      </c>
+      <c r="L134" s="3">
+        <v>37629</v>
+      </c>
+      <c r="M134" s="1">
+        <v>9</v>
+      </c>
+      <c r="N134" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P134" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q134" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R134" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S134" s="1">
+        <v>9217669143</v>
+      </c>
+      <c r="T134" s="1"/>
+      <c r="U134" s="1"/>
+      <c r="V134" s="3"/>
+    </row>
+    <row r="135" s="1" customFormat="1" spans="1:22">
+      <c r="A135" s="6">
+        <v>44151.387962963</v>
+      </c>
+      <c r="B135" s="1">
+        <v>7</v>
+      </c>
+      <c r="C135" s="1">
+        <v>404</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H135" s="1">
+        <v>225</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J135" s="1">
+        <v>9818346175</v>
+      </c>
+      <c r="K135" s="1">
+        <v>1</v>
+      </c>
+      <c r="L135" s="3">
+        <v>38137</v>
+      </c>
+      <c r="M135" s="1">
+        <v>8</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q135" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R135" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S135" s="1">
+        <v>9117966505</v>
+      </c>
+      <c r="T135" s="1"/>
+      <c r="U135" s="1"/>
+      <c r="V135" s="3"/>
+    </row>
+    <row r="136" s="1" customFormat="1" spans="1:22">
+      <c r="A136" s="6">
+        <v>44151.387962963</v>
+      </c>
+      <c r="B136" s="1">
+        <v>8</v>
+      </c>
+      <c r="C136" s="1">
+        <v>404</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H136" s="1">
+        <v>205</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J136" s="1">
+        <v>9118201614</v>
+      </c>
+      <c r="K136" s="1">
+        <v>1</v>
+      </c>
+      <c r="L136" s="3">
+        <v>38745</v>
+      </c>
+      <c r="M136" s="1">
+        <v>8</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P136" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q136" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R136" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="S136" s="1">
+        <v>9112179395</v>
+      </c>
+      <c r="T136" s="1"/>
+      <c r="U136" s="1"/>
+      <c r="V136" s="3"/>
+    </row>
+    <row r="137" s="1" customFormat="1" spans="1:22">
+      <c r="A137" s="6">
+        <v>44151.387962963</v>
+      </c>
+      <c r="B137" s="1">
+        <v>9</v>
+      </c>
+      <c r="C137" s="1">
+        <v>404</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H137" s="1">
+        <v>225</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J137" s="1">
+        <v>9111959536</v>
+      </c>
+      <c r="K137" s="1">
+        <v>1</v>
+      </c>
+      <c r="L137" s="3">
+        <v>38051</v>
+      </c>
+      <c r="M137" s="1">
+        <v>9</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O137" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P137" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q137" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R137" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="S137" s="1">
+        <v>9112207532</v>
+      </c>
+      <c r="T137" s="1"/>
+      <c r="U137" s="1"/>
+      <c r="V137" s="3"/>
+    </row>
+    <row r="138" s="1" customFormat="1" spans="1:22">
+      <c r="A138" s="6">
+        <v>44151.387962963</v>
+      </c>
+      <c r="B138" s="1">
+        <v>10</v>
+      </c>
+      <c r="C138" s="1">
+        <v>404</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H138" s="1">
+        <v>534</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J138" s="1">
+        <v>89211047172</v>
+      </c>
+      <c r="K138" s="1">
+        <v>4</v>
+      </c>
+      <c r="L138" s="3">
+        <v>37823</v>
+      </c>
+      <c r="M138" s="1">
+        <v>11</v>
+      </c>
+      <c r="N138" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P138" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q138" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R138" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S138" s="1">
+        <v>89211047172</v>
+      </c>
+      <c r="T138" s="1"/>
+      <c r="U138" s="1"/>
+      <c r="V138" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:S128">
+  <autoFilter ref="A1:S138">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
